--- a/DataStructsTestsResults.xlsx
+++ b/DataStructsTestsResults.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbalkenende\Downloads\DataStructuresTests-master\DataStructuresTests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93C6FAB-0562-4426-979F-98AE45BC529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18195" windowHeight="11565"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Recap" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK1" localSheetId="0">Аркуш1!$A$11</definedName>
-    <definedName name="OLE_LINK11" localSheetId="0">Аркуш1!$A$17</definedName>
-    <definedName name="OLE_LINK3" localSheetId="0">Аркуш1!$A$15</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Overview!$A$11</definedName>
+    <definedName name="OLE_LINK11" localSheetId="0">Overview!$A$17</definedName>
+    <definedName name="OLE_LINK3" localSheetId="0">Overview!$A$15</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="110">
   <si>
     <t>Bad choice</t>
   </si>
@@ -505,12 +512,60 @@
 Called times: 2147483647
 Time: 00:00:06.6868265</t>
   </si>
+  <si>
+    <t>Overzic</t>
+  </si>
+  <si>
+    <t>Cell size</t>
+  </si>
+  <si>
+    <t>Known</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Number of cells</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Really large amount of cells</t>
+  </si>
+  <si>
+    <t>Add/remove cells at end</t>
+  </si>
+  <si>
+    <t>Add/remove cells in the beginning/middle</t>
+  </si>
+  <si>
+    <t>Sequential access (forward/backwards)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array </t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Xlarge</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,26 +772,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -771,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,9 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -811,9 +860,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -821,14 +880,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -866,7 +928,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -900,6 +962,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -934,9 +997,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1109,540 +1173,517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="D10" sqref="A10:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" customWidth="1"/>
+    <col min="5" max="5" width="2.7265625" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="7" max="7" width="30.26953125" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" customWidth="1"/>
+    <col min="9" max="9" width="2.54296875" customWidth="1"/>
+    <col min="10" max="10" width="31.26953125" customWidth="1"/>
+    <col min="11" max="11" width="30.54296875" customWidth="1"/>
+    <col min="12" max="12" width="32.453125" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="15"/>
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="42" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="42" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15" t="s">
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="28"/>
+      <c r="J7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="45">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="33" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="45">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="33" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="45">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="33" t="s">
+      <c r="D10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="33" t="s">
+      <c r="I10" s="28"/>
+      <c r="J10" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="105">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="30" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="30" t="s">
+      <c r="I11" s="28"/>
+      <c r="J11" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="M11" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="36" t="s">
+      <c r="I12" s="28"/>
+      <c r="J12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="109.5" customHeight="1">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="30" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="30" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="45">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="30" t="s">
+      <c r="I15" s="28"/>
+      <c r="J15" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="30" t="s">
+      <c r="I16" s="28"/>
+      <c r="J16" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="45">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="30" t="s">
+      <c r="I17" s="28"/>
+      <c r="J17" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="75">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1">
-      <c r="A19" s="17" t="s">
+      <c r="E18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="4"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1653,4 +1694,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB815B08-C1C9-4634-8921-CE5C93DE54B2}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.54296875" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>